--- a/備品管理/バーコード付き/抵抗.xlsx
+++ b/備品管理/バーコード付き/抵抗.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ミューライ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ミューライ\Desktop\NOTI-NO-GOMI\備品管理\バーコード付き\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -233,12 +234,27 @@
     <t>220kΩ 1/6w</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>10kΩ 1/4w</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1MΩ 1/6w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <rPh sb="0" eb="2">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,17 +278,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,19 +348,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,44 +661,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2170976</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3570</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2059214" y="4154713"/>
-          <a:ext cx="2161905" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
@@ -681,7 +678,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -719,7 +716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -757,7 +754,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -795,7 +792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -833,7 +830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -871,7 +868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -909,7 +906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -947,7 +944,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -985,7 +982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1023,7 +1020,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1061,7 +1058,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1099,7 +1096,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1137,7 +1134,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1175,14 +1172,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2059214" y="10758713"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377247" y="10738436"/>
           <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,7 +1210,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1245,20 +1242,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="852713"/>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="1324428"/>
           <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1283,20 +1280,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="1324428"/>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="1796142"/>
           <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1321,20 +1318,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="1796142"/>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="2267856"/>
           <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1359,20 +1356,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="2267856"/>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="2739571"/>
           <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,51 +1394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="2739571"/>
-          <a:ext cx="2009524" cy="428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2018595</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>446713</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="35" name="図 34"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1462,13 +1421,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1866214</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>427666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1479,7 +1438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1500,18 +1459,94 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2170976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>476934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="4154713"/>
+          <a:ext cx="2161905" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
       <xdr:row>11</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2170976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>476934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="4626428"/>
+          <a:ext cx="2161905" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>3570</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36"/>
+      <xdr:rowOff>476935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1524,7 +1559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="4154713"/>
+          <a:off x="6286500" y="5098142"/>
           <a:ext cx="2161905" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1538,18 +1573,18 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1866214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>427666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1562,32 +1597,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="4626428"/>
-          <a:ext cx="2161905" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>13</xdr:row>
+          <a:off x="6286500" y="5569856"/>
+          <a:ext cx="1857143" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38"/>
+      <xdr:rowOff>476934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1600,7 +1635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="5098142"/>
+          <a:off x="6286500" y="6041571"/>
           <a:ext cx="2161905" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1613,19 +1648,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1866214</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>427666</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39"/>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2184995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>476935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1638,114 +1673,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="5569856"/>
-          <a:ext cx="1857143" cy="409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>15</xdr:row>
+          <a:off x="6295571" y="6513285"/>
+          <a:ext cx="2161905" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40"/>
+      <xdr:rowOff>476935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="6041571"/>
-          <a:ext cx="2161905" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2904</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6295571" y="6513285"/>
-          <a:ext cx="2161905" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2170976</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1766,14 +1725,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3570</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>476933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1783,7 +1742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1804,13 +1763,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2018595</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>446713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1821,7 +1780,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1848,8 +1807,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>476935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1859,7 +1818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1897,7 +1856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1935,7 +1894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1956,31 +1915,31 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="9815285"/>
+      <xdr:rowOff>476935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="10286999"/>
           <a:ext cx="2161905" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1994,31 +1953,31 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="10286999"/>
+      <xdr:rowOff>476934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="10758713"/>
           <a:ext cx="2161905" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2032,52 +1991,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2170976</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>3570</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="10758713"/>
-          <a:ext cx="2161905" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2170976</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
+      <xdr:rowOff>476934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2087,7 +2008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2096,6 +2017,186 @@
         <a:xfrm>
           <a:off x="6286500" y="11230428"/>
           <a:ext cx="2161905" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2016995</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>450984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6163236" y="9801413"/>
+          <a:ext cx="2009524" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2782974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>565947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2378363" y="4410363"/>
+          <a:ext cx="2771429" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704762" cy="380952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2378363" y="14708908"/>
+          <a:ext cx="1704762" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2009524" cy="428571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6820889" y="849415"/>
+          <a:ext cx="2009524" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2021069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>451661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6823363" y="9513454"/>
+          <a:ext cx="2009524" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2373,22 +2474,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:I34"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
     <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
     <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -2407,384 +2517,388 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
+    <row r="31" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1"/>
+    <row r="32" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="7"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="1"/>
+    <row r="33" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2801,7 +2915,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
